--- a/cases/goodhostpital2021/评价指标体系.xlsx
+++ b/cases/goodhostpital2021/评价指标体系.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="139">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">费用控制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">适用范围</t>
   </si>
   <si>
     <t xml:space="preserve">指标导向</t>
@@ -115,6 +118,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">值</t>
     </r>
@@ -126,7 +130,7 @@
     <t xml:space="preserve">新编医院填报</t>
   </si>
   <si>
-    <t xml:space="preserve">✕</t>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <r>
@@ -145,6 +149,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">当量</t>
     </r>
@@ -164,6 +169,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组数</t>
     </r>
@@ -188,6 +194,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组数</t>
     </r>
@@ -212,6 +219,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类切口手术部位感染率</t>
     </r>
@@ -226,6 +234,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">百分比（</t>
     </r>
@@ -245,6 +254,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -253,7 +263,7 @@
     <t xml:space="preserve">病案首页</t>
   </si>
   <si>
-    <t xml:space="preserve">✓</t>
+    <t xml:space="preserve">++</t>
   </si>
   <si>
     <t xml:space="preserve">万元收入能耗占比</t>
@@ -265,6 +275,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">吨标煤</t>
     </r>
@@ -284,6 +295,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">万元</t>
     </r>
@@ -304,7 +316,7 @@
     <t xml:space="preserve">医院填报</t>
   </si>
   <si>
-    <t xml:space="preserve">✓✕</t>
+    <t xml:space="preserve">+</t>
   </si>
   <si>
     <t xml:space="preserve">中医医师占比</t>
@@ -394,6 +406,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">比值（</t>
     </r>
@@ -413,6 +426,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -451,6 +465,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">百分比（</t>
     </r>
@@ -470,6 +485,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）、人、篇、比值（</t>
     </r>
@@ -489,6 +505,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -533,6 +550,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">抗菌药物使用强度</t>
     </r>
@@ -709,6 +727,7 @@
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -782,10 +801,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="38" sqref="H2:I4 H8 H13 H16 H23:H24 H27:H29 H32:J33 H42:I42 H44:I44 H49:H50 H53 H61:H63 H68:I68 H70 H83 I9:J11 I13:I14 I18 I20 I24:I26 I35 I47:J47 I49:I52 I55:I57 I59 I62:I63 I72:I75 I79 J2:J5 J7 J14:J15 J17:J22 J25:J27 J35:J38 J41 J51:J59 J66 J71:J81 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -850,10 +869,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="38" sqref="H2:I4 H8 H13 H16 H23:H24 H27:H29 H32:J33 H42:I42 H44:I44 H49:H50 H53 H61:H63 H68:I68 H70 H83 I9:J11 I13:I14 I18 I20 I24:I26 I35 I47:J47 I49:I52 I55:I57 I59 I62:I63 I72:I75 I79 J2:J5 J7 J14:J15 J17:J22 J25:J27 J35:J38 J41 J51:J59 J66 J71:J81 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
@@ -1018,21 +1037,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:I4 H8 H13 H16 H23:H24 H27:H29 H32:J33 H42:I42 H44:I44 H49:H50 H53 H61:H63 H68:I68 H70 H83 I9:J11 I13:I14 I18 I20 I24:I26 I35 I47:J47 I49:I52 I55:I57 I59 I62:I63 I72:I75 I79 J2:J5 J7 J14:J15 J17:J22 J25:J27 J35:J38 J41 J51:J59 J66 J71:J81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,10 +1079,13 @@
       <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.618</v>
@@ -1071,25 +1093,28 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.382</v>
@@ -1097,54 +1122,60 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>28</v>
+      <c r="D3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="D4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
+      <c r="D5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
@@ -1152,51 +1183,57 @@
       <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
+      <c r="D6" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>37</v>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>43</v>
@@ -1204,233 +1241,260 @@
       <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
+      <c r="D9" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>42</v>
+      <c r="D10" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
+      <c r="D11" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
+      <c r="D13" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
+      <c r="D14" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
+      <c r="D16" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>35</v>
@@ -1438,25 +1502,28 @@
       <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>28</v>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
@@ -1464,383 +1531,428 @@
       <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
+      <c r="D18" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>42</v>
+      <c r="D19" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
+      <c r="D20" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
+      <c r="D21" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
+      <c r="D22" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
+      <c r="D23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>42</v>
+      <c r="D24" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>28</v>
+      <c r="G24" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>42</v>
+      <c r="D25" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>42</v>
+      <c r="D26" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>42</v>
+      <c r="D27" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>28</v>
+      <c r="G27" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
+      <c r="D28" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>28</v>
+      <c r="G28" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>42</v>
+      <c r="D29" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>28</v>
+      <c r="G29" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>72</v>
+      <c r="D30" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>75</v>
+      <c r="D31" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.382</v>
@@ -1848,28 +1960,31 @@
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>26</v>
+      <c r="D32" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.618</v>
@@ -1877,296 +1992,332 @@
       <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>26</v>
+      <c r="D33" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>42</v>
+      <c r="D34" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>42</v>
+      <c r="D35" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>42</v>
+      <c r="D36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>42</v>
+      <c r="D37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>42</v>
+      <c r="D38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>42</v>
+      <c r="D40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>42</v>
+      <c r="D41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>42</v>
+      <c r="D42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="D43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>75</v>
+      <c r="D44" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>28</v>
+        <v>94</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>34</v>
+      <c r="D45" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>35</v>
@@ -2174,651 +2325,729 @@
       <c r="F45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>37</v>
+      <c r="D46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>42</v>
+      <c r="D47" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>32</v>
+      <c r="D48" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
+      <c r="D49" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>34</v>
+      <c r="D50" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>42</v>
+      <c r="D51" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>42</v>
+      <c r="D52" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>37</v>
+        <v>103</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>42</v>
+      <c r="D53" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>28</v>
+        <v>103</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>42</v>
+      <c r="D54" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>37</v>
+        <v>103</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>42</v>
+      <c r="D55" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G55" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>42</v>
+      <c r="D56" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>42</v>
+      <c r="D57" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>42</v>
+      <c r="D58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G58" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>42</v>
+      <c r="D59" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>42</v>
+      <c r="D60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>42</v>
+      <c r="D61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>42</v>
+      <c r="D62" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>42</v>
+      <c r="D63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="D64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>75</v>
+      <c r="D65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>42</v>
+      <c r="D66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>75</v>
+      <c r="D68" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>75</v>
+      <c r="D69" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G69" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>42</v>
+      <c r="D70" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>42</v>
+      <c r="D71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>43</v>
@@ -2826,314 +3055,353 @@
       <c r="F71" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>42</v>
+      <c r="D72" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>42</v>
+      <c r="D73" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>42</v>
+      <c r="D74" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>42</v>
+      <c r="D75" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>42</v>
+      <c r="D76" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>42</v>
+      <c r="D77" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G77" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>34</v>
+      <c r="D78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>42</v>
+      <c r="D79" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>34</v>
+      <c r="D80" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>34</v>
+      <c r="D81" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>42</v>
+      <c r="D83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/cases/goodhostpital2021/评价指标体系.xlsx
+++ b/cases/goodhostpital2021/评价指标体系.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="141">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -93,13 +93,13 @@
     <t xml:space="preserve">指标来源</t>
   </si>
   <si>
-    <t xml:space="preserve">三中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三综</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二综</t>
+    <t xml:space="preserve">三级中医</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三级综合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二级综合</t>
   </si>
   <si>
     <r>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">新编医院填报</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">自</t>
   </si>
   <si>
     <r>
@@ -178,6 +178,9 @@
     <t xml:space="preserve">自算</t>
   </si>
   <si>
+    <t xml:space="preserve">算</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -263,7 +266,10 @@
     <t xml:space="preserve">病案首页</t>
   </si>
   <si>
-    <t xml:space="preserve">++</t>
+    <t xml:space="preserve">监</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无</t>
   </si>
   <si>
     <t xml:space="preserve">万元收入能耗占比</t>
@@ -316,7 +322,7 @@
     <t xml:space="preserve">医院填报</t>
   </si>
   <si>
-    <t xml:space="preserve">+</t>
+    <t xml:space="preserve">有</t>
   </si>
   <si>
     <t xml:space="preserve">中医医师占比</t>
@@ -699,7 +705,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -728,6 +734,12 @@
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -772,12 +784,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -801,10 +817,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="38" sqref="H2:I4 H8 H13 H16 H23:H24 H27:H29 H32:J33 H42:I42 H44:I44 H49:H50 H53 H61:H63 H68:I68 H70 H83 I9:J11 I13:I14 I18 I20 I24:I26 I35 I47:J47 I49:I52 I55:I57 I59 I62:I63 I72:I75 I79 J2:J5 J7 J14:J15 J17:J22 J25:J27 J35:J38 J41 J51:J59 J66 J71:J81 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="J82 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -869,10 +885,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="38" sqref="H2:I4 H8 H13 H16 H23:H24 H27:H29 H32:J33 H42:I42 H44:I44 H49:H50 H53 H61:H63 H68:I68 H70 H83 I9:J11 I13:I14 I18 I20 I24:I26 I35 I47:J47 I49:I52 I55:I57 I59 I62:I63 I72:I75 I79 J2:J5 J7 J14:J15 J17:J22 J25:J27 J35:J38 J41 J51:J59 J66 J71:J81 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="J82 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
@@ -1040,10 +1056,10 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:I4 H8 H13 H16 H23:H24 H27:H29 H32:J33 H42:I42 H44:I44 H49:H50 H53 H61:H63 H68:I68 H70 H83 I9:J11 I13:I14 I18 I20 I24:I26 I35 I47:J47 I49:I52 I55:I57 I59 I62:I63 I72:I75 I79 J2:J5 J7 J14:J15 J17:J22 J25:J27 J35:J38 J41 J51:J59 J66 J71:J81"/>
+      <selection pane="topLeft" activeCell="J82" activeCellId="0" sqref="J82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -1102,13 +1118,13 @@
       <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1131,19 +1147,19 @@
       <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>29</v>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1152,24 +1168,24 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -1178,27 +1194,27 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>29</v>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1207,27 +1223,27 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -1236,27 +1252,27 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1265,27 +1281,27 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1294,27 +1310,27 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -1323,27 +1339,27 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>29</v>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1352,27 +1368,27 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>29</v>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
@@ -1381,27 +1397,27 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>38</v>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1410,27 +1426,27 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1439,27 +1455,27 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
@@ -1468,27 +1484,27 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -1497,27 +1513,27 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>38</v>
+      <c r="H16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -1526,27 +1542,27 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1555,27 +1571,27 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -1584,27 +1600,27 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -1613,27 +1629,27 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
@@ -1642,27 +1658,27 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
@@ -1671,27 +1687,27 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
@@ -1700,27 +1716,27 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
@@ -1729,27 +1745,27 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -1758,27 +1774,27 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -1787,27 +1803,27 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
@@ -1816,27 +1832,27 @@
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="0" t="s">
-        <v>29</v>
+      <c r="H27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
@@ -1845,27 +1861,27 @@
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>38</v>
+      <c r="H28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
@@ -1874,27 +1890,27 @@
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="0" t="s">
-        <v>38</v>
+      <c r="H29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
@@ -1903,27 +1919,27 @@
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
@@ -1932,27 +1948,27 @@
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.382</v>
@@ -1967,24 +1983,24 @@
         <v>27</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>29</v>
+      <c r="H32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.618</v>
@@ -1999,24 +2015,24 @@
         <v>27</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>29</v>
+      <c r="H33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -2025,27 +2041,27 @@
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>38</v>
+      <c r="H34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
@@ -2054,27 +2070,27 @@
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -2083,27 +2099,27 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>29</v>
+        <v>84</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -2112,27 +2128,27 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -2141,27 +2157,27 @@
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>13</v>
@@ -2175,10 +2191,19 @@
       <c r="G39" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -2187,27 +2212,27 @@
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2216,27 +2241,27 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>29</v>
+        <v>91</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -2245,27 +2270,27 @@
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>46</v>
+        <v>93</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
@@ -2279,10 +2304,19 @@
       <c r="G43" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
@@ -2291,27 +2325,27 @@
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J44" s="0" t="s">
-        <v>38</v>
+      <c r="J44" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>17</v>
@@ -2320,27 +2354,27 @@
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>38</v>
+      <c r="H45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -2349,27 +2383,27 @@
         <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>7</v>
@@ -2378,27 +2412,27 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
@@ -2407,27 +2441,27 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>18</v>
@@ -2436,27 +2470,27 @@
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>18</v>
@@ -2465,27 +2499,27 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
@@ -2494,27 +2528,27 @@
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>14</v>
@@ -2523,27 +2557,27 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>14</v>
@@ -2552,27 +2586,27 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>14</v>
@@ -2581,27 +2615,27 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
@@ -2610,27 +2644,27 @@
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>14</v>
@@ -2639,27 +2673,27 @@
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -2668,27 +2702,27 @@
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2697,27 +2731,27 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>17</v>
@@ -2726,27 +2760,27 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>16</v>
@@ -2755,27 +2789,27 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>38</v>
+        <v>84</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>7</v>
@@ -2784,27 +2818,27 @@
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>16</v>
@@ -2813,27 +2847,27 @@
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>46</v>
+        <v>118</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>16</v>
@@ -2842,27 +2876,27 @@
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>46</v>
+        <v>118</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>13</v>
@@ -2876,10 +2910,19 @@
       <c r="G64" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>15</v>
@@ -2888,27 +2931,27 @@
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>17</v>
@@ -2917,27 +2960,27 @@
         <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>29</v>
+        <v>84</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>13</v>
@@ -2951,10 +2994,19 @@
       <c r="G67" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="H67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
@@ -2963,27 +3015,27 @@
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
@@ -2992,27 +3044,27 @@
         <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>7</v>
@@ -3021,27 +3073,27 @@
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
@@ -3050,27 +3102,27 @@
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>15</v>
@@ -3079,27 +3131,27 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>9</v>
@@ -3108,27 +3160,27 @@
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>9</v>
@@ -3137,27 +3189,27 @@
         <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>9</v>
@@ -3166,27 +3218,27 @@
         <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
@@ -3195,27 +3247,27 @@
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
@@ -3224,27 +3276,27 @@
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>16</v>
@@ -3253,27 +3305,27 @@
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
@@ -3282,27 +3334,27 @@
         <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>18</v>
@@ -3311,27 +3363,27 @@
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>18</v>
@@ -3340,27 +3392,27 @@
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>13</v>
@@ -3369,15 +3421,24 @@
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>7</v>
@@ -3386,22 +3447,22 @@
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/cases/goodhostpital2021/评价指标体系.xlsx
+++ b/cases/goodhostpital2021/评价指标体系.xlsx
@@ -11,6 +11,7 @@
     <sheet name="一级指标设置" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="二级指标设置" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="三级指标设置" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="科室设置" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="186">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -444,6 +445,9 @@
     <t xml:space="preserve">医师人数</t>
   </si>
   <si>
+    <t xml:space="preserve">人</t>
+  </si>
+  <si>
     <t xml:space="preserve">医师人数与开放床位数比</t>
   </si>
   <si>
@@ -453,6 +457,15 @@
     <t xml:space="preserve">低优</t>
   </si>
   <si>
+    <t xml:space="preserve">医疗服务收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗收入</t>
+  </si>
+  <si>
     <t xml:space="preserve">医疗服务收入三年复合增长率</t>
   </si>
   <si>
@@ -471,61 +484,6 @@
     <t xml:space="preserve">国家卫生健康委</t>
   </si>
   <si>
-    <t xml:space="preserve">医院承担培养医学人才的工作成效</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">百分比（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">）、人、篇、比值（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1:X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">医院感染管理专职人员数与开放床位数比</t>
   </si>
   <si>
@@ -557,6 +515,9 @@
   </si>
   <si>
     <t xml:space="preserve">实际开放床位数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张</t>
   </si>
   <si>
     <t xml:space="preserve">平均住院日</t>
@@ -1000,6 +961,63 @@
       <t xml:space="preserve">0</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">选项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心胸外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泌尿外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神经外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妇产科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儿外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儿内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内分泌科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老年医学科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神经内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心血管内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呼吸内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消化内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肾内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重症医学科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">感染科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肝病科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">康复医学科</t>
+  </si>
 </sst>
 </file>
 
@@ -1008,7 +1026,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1037,12 +1055,6 @@
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1087,16 +1099,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1120,7 +1128,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F44 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1188,7 +1196,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="F44 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1341,13 +1349,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1369,8 +1377,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2261,8 +2269,12 @@
       <c r="D31" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
         <v>30</v>
@@ -2274,9 +2286,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
@@ -2284,8 +2296,12 @@
       <c r="D32" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
         <v>30</v>
@@ -2299,7 +2315,7 @@
     </row>
     <row r="33" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
@@ -2308,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>38</v>
@@ -2326,15 +2342,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0.382</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>3</v>
@@ -2343,103 +2356,102 @@
         <v>28</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0.618</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.382</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.618</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>41</v>
@@ -2450,13 +2462,13 @@
     </row>
     <row r="38" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>46</v>
@@ -2465,7 +2477,7 @@
         <v>38</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>40</v>
@@ -2474,128 +2486,142 @@
         <v>40</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="H40" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="J42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="D43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
         <v>30</v>
       </c>
@@ -2608,36 +2634,32 @@
     </row>
     <row r="44" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>9</v>
@@ -2652,7 +2674,7 @@
         <v>38</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>49</v>
@@ -2661,7 +2683,7 @@
         <v>49</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,53 +2706,63 @@
         <v>98</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="D48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="F48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
         <v>30</v>
       </c>
@@ -2743,23 +2775,21 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2767,22 +2797,28 @@
         <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H50" s="1" t="s">
         <v>30</v>
       </c>
@@ -2790,44 +2826,42 @@
         <v>30</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>3</v>
@@ -2835,55 +2869,67 @@
       <c r="E52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>106</v>
+      <c r="F52" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
         <v>30</v>
@@ -2897,74 +2943,72 @@
     </row>
     <row r="55" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>38</v>
@@ -2973,10 +3017,10 @@
         <v>44</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>40</v>
@@ -2984,7 +3028,7 @@
     </row>
     <row r="58" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>18</v>
@@ -3011,41 +3055,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H59" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
         <v>30</v>
@@ -3059,36 +3113,34 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
@@ -3100,13 +3152,13 @@
         <v>46</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>41</v>
@@ -3117,7 +3169,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>14</v>
@@ -3129,16 +3181,16 @@
         <v>46</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>41</v>
@@ -3146,7 +3198,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
@@ -3158,16 +3210,16 @@
         <v>46</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>41</v>
@@ -3175,7 +3227,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -3187,16 +3239,16 @@
         <v>46</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>41</v>
@@ -3204,7 +3256,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
@@ -3216,7 +3268,7 @@
         <v>46</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>48</v>
@@ -3231,21 +3283,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>48</v>
@@ -3262,7 +3314,7 @@
     </row>
     <row r="68" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>9</v>
@@ -3283,7 +3335,7 @@
         <v>49</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>41</v>
@@ -3291,13 +3343,13 @@
     </row>
     <row r="69" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>46</v>
@@ -3312,47 +3364,47 @@
         <v>49</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>1</v>
@@ -3361,13 +3413,13 @@
         <v>46</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>40</v>
@@ -3378,10 +3430,10 @@
     </row>
     <row r="72" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>1</v>
@@ -3393,21 +3445,21 @@
         <v>38</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
@@ -3422,7 +3474,7 @@
         <v>38</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>41</v>
@@ -3434,79 +3486,82 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>40</v>
@@ -3515,67 +3570,67 @@
         <v>40</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="D78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
@@ -3584,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>38</v>
@@ -3593,10 +3648,10 @@
         <v>48</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>49</v>
@@ -3604,39 +3659,39 @@
     </row>
     <row r="80" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>1</v>
@@ -3645,45 +3700,45 @@
         <v>46</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>41</v>
@@ -3691,10 +3746,10 @@
     </row>
     <row r="83" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>3</v>
@@ -3706,7 +3761,7 @@
         <v>38</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>40</v>
@@ -3720,7 +3775,7 @@
     </row>
     <row r="84" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
@@ -3749,7 +3804,7 @@
     </row>
     <row r="85" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>7</v>
@@ -3778,10 +3833,10 @@
     </row>
     <row r="86" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>3</v>
@@ -3796,10 +3851,10 @@
         <v>48</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>41</v>
@@ -3807,13 +3862,13 @@
     </row>
     <row r="87" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>46</v>
@@ -3834,9 +3889,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>10</v>
@@ -3845,10 +3900,10 @@
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>48</v>
@@ -3863,30 +3918,30 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>41</v>
@@ -3894,28 +3949,28 @@
     </row>
     <row r="90" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>41</v>
@@ -3923,7 +3978,7 @@
     </row>
     <row r="91" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>18</v>
@@ -3950,90 +4005,99 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>81</v>
+        <v>37</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>16</v>
@@ -4041,6 +4105,9 @@
       <c r="D95" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E95" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H95" s="1" t="s">
         <v>30</v>
       </c>
@@ -4053,10 +4120,10 @@
     </row>
     <row r="96" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>16</v>
@@ -4064,6 +4131,9 @@
       <c r="D96" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E96" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H96" s="1" t="s">
         <v>30</v>
       </c>
@@ -4076,10 +4146,10 @@
     </row>
     <row r="97" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
@@ -4087,6 +4157,9 @@
       <c r="D97" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E97" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H97" s="1" t="s">
         <v>30</v>
       </c>
@@ -4099,10 +4172,10 @@
     </row>
     <row r="98" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>16</v>
@@ -4110,6 +4183,9 @@
       <c r="D98" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E98" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H98" s="1" t="s">
         <v>30</v>
       </c>
@@ -4122,10 +4198,10 @@
     </row>
     <row r="99" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>16</v>
@@ -4133,6 +4209,9 @@
       <c r="D99" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E99" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H99" s="1" t="s">
         <v>30</v>
       </c>
@@ -4143,7 +4222,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4154,4 +4258,184 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F44 A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/cases/goodhostpital2021/评价指标体系.xlsx
+++ b/cases/goodhostpital2021/评价指标体系.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ann.Chen\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="一级指标设置" sheetId="1" r:id="rId1"/>
-    <sheet name="二级指标设置" sheetId="2" r:id="rId2"/>
-    <sheet name="三级指标设置" sheetId="3" r:id="rId3"/>
-    <sheet name="科室设置" sheetId="4" r:id="rId4"/>
+    <sheet name="一级指标设置" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="二级指标设置" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="三级指标设置" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="科室设置" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -27,87 +23,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="188">
-  <si>
-    <t>数据名</t>
-  </si>
-  <si>
-    <t>权重</t>
-  </si>
-  <si>
-    <t>医疗质量</t>
-  </si>
-  <si>
-    <t>持续发展</t>
-  </si>
-  <si>
-    <t>满意度评价</t>
-  </si>
-  <si>
-    <t>运营效率</t>
-  </si>
-  <si>
-    <t>上级指标</t>
-  </si>
-  <si>
-    <t>功能定位</t>
-  </si>
-  <si>
-    <t>医保价值</t>
-  </si>
-  <si>
-    <t>合理用药</t>
-  </si>
-  <si>
-    <t>服务流程</t>
-  </si>
-  <si>
-    <t>质量安全</t>
-  </si>
-  <si>
-    <t>人员结构</t>
-  </si>
-  <si>
-    <t>人才培养</t>
-  </si>
-  <si>
-    <t>学科建设</t>
-  </si>
-  <si>
-    <t>医服收入</t>
-  </si>
-  <si>
-    <t>地位影响</t>
-  </si>
-  <si>
-    <t>收支结构</t>
-  </si>
-  <si>
-    <t>费用控制</t>
-  </si>
-  <si>
-    <t>资源效率</t>
-  </si>
-  <si>
-    <t>适用范围</t>
-  </si>
-  <si>
-    <t>指标导向</t>
-  </si>
-  <si>
-    <t>计量单位</t>
-  </si>
-  <si>
-    <t>指标来源</t>
-  </si>
-  <si>
-    <t>三级中医</t>
-  </si>
-  <si>
-    <t>三级综合</t>
-  </si>
-  <si>
-    <t>二级综合</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="194">
+  <si>
+    <t xml:space="preserve">数据名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">权重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗质量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">持续发展</t>
+  </si>
+  <si>
+    <t xml:space="preserve">满意度评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">运营效率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上级指标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">功能定位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医保价值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合理用药</t>
+  </si>
+  <si>
+    <t xml:space="preserve">服务流程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">质量安全</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人员结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人才培养</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学科建设</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医服收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地位影响</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收支结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">费用控制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资源效率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">适用范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指标导向</t>
+  </si>
+  <si>
+    <t xml:space="preserve">计量单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指标来源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三级中医</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三级综合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二级综合</t>
   </si>
   <si>
     <r>
@@ -118,7 +114,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>CMI</t>
+      <t xml:space="preserve">CMI</t>
     </r>
     <r>
       <rPr>
@@ -128,17 +124,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>值</t>
-    </r>
-  </si>
-  <si>
-    <t>高优</t>
-  </si>
-  <si>
-    <t>新编医院填报</t>
-  </si>
-  <si>
-    <t>自</t>
+      <t xml:space="preserve">值</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">高优</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新编医院填报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自</t>
   </si>
   <si>
     <r>
@@ -149,7 +145,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>CMI</t>
+      <t xml:space="preserve">CMI</t>
     </r>
     <r>
       <rPr>
@@ -159,7 +155,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>当量</t>
+      <t xml:space="preserve">当量</t>
     </r>
     <r>
       <rPr>
@@ -169,7 +165,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>DRGs</t>
+      <t xml:space="preserve">DRGs</t>
     </r>
     <r>
       <rPr>
@@ -179,14 +175,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>组数</t>
-    </r>
-  </si>
-  <si>
-    <t>自算</t>
-  </si>
-  <si>
-    <t>算</t>
+      <t xml:space="preserve">组数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">自算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">算</t>
   </si>
   <si>
     <r>
@@ -197,7 +193,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>DRGs</t>
+      <t xml:space="preserve">DRGs</t>
     </r>
     <r>
       <rPr>
@@ -207,11 +203,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>组数</t>
-    </r>
-  </si>
-  <si>
-    <t>无标准</t>
+      <t xml:space="preserve">组数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">无标准</t>
   </si>
   <si>
     <r>
@@ -222,7 +218,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>I</t>
+      <t xml:space="preserve">I</t>
     </r>
     <r>
       <rPr>
@@ -232,11 +228,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>类切口手术部位感染率</t>
-    </r>
-  </si>
-  <si>
-    <t>逐步降低</t>
+      <t xml:space="preserve">类切口手术部位感染率</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">逐步降低</t>
   </si>
   <si>
     <r>
@@ -247,7 +243,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>百分比（</t>
+      <t xml:space="preserve">百分比（</t>
     </r>
     <r>
       <rPr>
@@ -257,7 +253,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>%</t>
+      <t xml:space="preserve">%</t>
     </r>
     <r>
       <rPr>
@@ -267,20 +263,20 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>病案首页</t>
-  </si>
-  <si>
-    <t>监</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>万元收入能耗占比</t>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">病案首页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">监</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万元收入能耗占比</t>
   </si>
   <si>
     <r>
@@ -291,7 +287,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>吨标煤</t>
+      <t xml:space="preserve">吨标煤</t>
     </r>
     <r>
       <rPr>
@@ -301,7 +297,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>/</t>
+      <t xml:space="preserve">/</t>
     </r>
     <r>
       <rPr>
@@ -311,107 +307,107 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>万元</t>
-    </r>
-  </si>
-  <si>
-    <t>财务年报表</t>
-  </si>
-  <si>
-    <t>下转患者人次数</t>
-  </si>
-  <si>
-    <t>逐步提高</t>
-  </si>
-  <si>
-    <t>人次</t>
-  </si>
-  <si>
-    <t>医院填报</t>
-  </si>
-  <si>
-    <t>考</t>
-  </si>
-  <si>
-    <t>中医医师占比</t>
-  </si>
-  <si>
-    <t>国家医疗机构、医师、护士电子化注册系统</t>
-  </si>
-  <si>
-    <t>中医类别执业医师含执业助理医师占执业医师总数比例</t>
-  </si>
-  <si>
-    <t>中药收入占药品收入比例</t>
-  </si>
-  <si>
-    <t>中药饮片收入占药品收入比例</t>
-  </si>
-  <si>
-    <t>人员支出占业务支出比重</t>
-  </si>
-  <si>
-    <t>人才培养经费投入占比</t>
-  </si>
-  <si>
-    <t>以中医为主治疗的出院患者比例</t>
-  </si>
-  <si>
-    <t>中医病案首页</t>
-  </si>
-  <si>
-    <t>优质护理服务病房覆盖率</t>
-  </si>
-  <si>
-    <t>低风险组病例死亡率</t>
-  </si>
-  <si>
-    <t>住院下转患者人次数</t>
-  </si>
-  <si>
-    <t>住院中医医疗服务项目收入占住院医疗收入比例</t>
-  </si>
-  <si>
-    <t>财务年报表、医院填报</t>
-  </si>
-  <si>
-    <t>住院患者基本药物使用率</t>
-  </si>
-  <si>
-    <t>住院手术患者围手术期中医治疗比例</t>
-  </si>
-  <si>
-    <t>住院次均药品费用增幅</t>
-  </si>
-  <si>
-    <t>住院次均费用增幅</t>
-  </si>
-  <si>
-    <t>儿科医师占比</t>
-  </si>
-  <si>
-    <t>出院患者三级手术占比</t>
-  </si>
-  <si>
-    <t>出院患者中药饮片使用率</t>
-  </si>
-  <si>
-    <t>出院患者使用中医非药物疗法比例</t>
-  </si>
-  <si>
-    <t>出院患者四级手术比例</t>
-  </si>
-  <si>
-    <t>出院患者微创手术占比</t>
-  </si>
-  <si>
-    <t>出院患者手术占比</t>
-  </si>
-  <si>
-    <t>医护比</t>
-  </si>
-  <si>
-    <t>有标准</t>
+      <t xml:space="preserve">万元</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">财务年报表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下转患者人次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逐步提高</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院填报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中医医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家医疗机构、医师、护士电子化注册系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中医类别执业医师含执业助理医师占执业医师总数比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中药收入占药品收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中药饮片收入占药品收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人员支出占业务支出比重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人才培养经费投入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以中医为主治疗的出院患者比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中医病案首页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优质护理服务病房覆盖率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">低风险组病例死亡率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院下转患者人次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院中医医疗服务项目收入占住院医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">财务年报表、医院填报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院患者基本药物使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院手术患者围手术期中医治疗比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院次均药品费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院次均费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儿科医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者三级手术占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者中药饮片使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者使用中医非药物疗法比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者四级手术比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者微创手术占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者手术占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医护比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有标准</t>
   </si>
   <si>
     <r>
@@ -422,7 +418,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>比值（</t>
+      <t xml:space="preserve">比值（</t>
     </r>
     <r>
       <rPr>
@@ -432,7 +428,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>1:X</t>
+      <t xml:space="preserve">1:X</t>
     </r>
     <r>
       <rPr>
@@ -442,95 +438,53 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>医师人数</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>医师人数与开放床位数比</t>
-  </si>
-  <si>
-    <t>医疗收入增幅</t>
-  </si>
-  <si>
-    <t>低优</t>
-  </si>
-  <si>
-    <t>医疗服务收入</t>
-  </si>
-  <si>
-    <t>万元</t>
-  </si>
-  <si>
-    <t>医疗收入</t>
-  </si>
-  <si>
-    <t>医疗服务收入三年复合增长率</t>
-  </si>
-  <si>
-    <t>医疗服务收入占全院比重</t>
-  </si>
-  <si>
-    <t>医疗服务收入占医疗收入比例</t>
-  </si>
-  <si>
-    <t>医疗机构中药制剂收入占药品收入比例</t>
-  </si>
-  <si>
-    <t>医院住院医师首次参加医师资格考试通过率</t>
-  </si>
-  <si>
-    <t>国家卫生健康委</t>
-  </si>
-  <si>
-    <t>医院感染管理专职人员数与开放床位数比</t>
-  </si>
-  <si>
-    <t>博士研究生导师占比</t>
-  </si>
-  <si>
-    <t>卫生技术人员数与开放床位数比</t>
-  </si>
-  <si>
-    <t>国家组织药品集中采购中标药品金额占比</t>
-  </si>
-  <si>
-    <t>基本药物采购品种数占比</t>
-  </si>
-  <si>
-    <t>省级招采平台</t>
-  </si>
-  <si>
-    <t>基本药物采购金额占比</t>
-  </si>
-  <si>
-    <t>省级药品集中采购平台</t>
-  </si>
-  <si>
-    <t>外省住院患者占比</t>
-  </si>
-  <si>
-    <t>实际开放床位数</t>
-  </si>
-  <si>
-    <t>张</t>
-  </si>
-  <si>
-    <t>平均住院日</t>
-  </si>
-  <si>
-    <t>天</t>
-  </si>
-  <si>
-    <t>开放床位使用率</t>
-  </si>
-  <si>
-    <t>手术患者并发症发生率</t>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">医师人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医师人数与开放床位数比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗收入增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">低优</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入三年复合增长率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入占全院比重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入占医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗机构中药制剂收入占药品收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院住院医师首次参加医师资格考试通过率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家卫生健康委</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院感染管理专职人员数与开放床位数比</t>
   </si>
   <si>
     <r>
@@ -539,9 +493,89 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">比值（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1:X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">对口支援医院进修人员并返回原医院人员占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医联体内医院进修人员并返回原医院人员占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他医院进修人员并返回原医院人员占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博士研究生导师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卫生技术人员数与开放床位数比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家组织药品集中采购中标药品金额占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本药物采购品种数占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级招采平台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本药物采购金额占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级药品集中采购平台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外省住院患者占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">实际开放床位数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平均住院日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开放床位使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手术患者并发症发生率</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>抗菌药物使用强度</t>
+      <t xml:space="preserve">抗菌药物使用强度</t>
     </r>
     <r>
       <rPr>
@@ -551,149 +585,149 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>DDDs</t>
-    </r>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>护士人数</t>
-  </si>
-  <si>
-    <t>护士人数与开放床位数比</t>
-  </si>
-  <si>
-    <t>护理人员系统接受中医药知识和技能培训比例</t>
-  </si>
-  <si>
-    <t>收支结余</t>
-  </si>
-  <si>
-    <t>次均药品费用增幅</t>
-  </si>
-  <si>
-    <t>次均费用增幅</t>
-  </si>
-  <si>
-    <t>有效收入</t>
-  </si>
-  <si>
-    <t>核定床位数</t>
-  </si>
-  <si>
-    <t>每百名卫生技术人员中医药科研成果转化金额</t>
-  </si>
-  <si>
-    <t>元</t>
-  </si>
-  <si>
-    <t>每百名卫生技术人员中医药科研项目经费</t>
-  </si>
-  <si>
-    <t>每百名卫生技术人员科研成果转化金额</t>
-  </si>
-  <si>
-    <t>每百名卫生技术人员科研项目经费</t>
-  </si>
-  <si>
-    <t>每百名卫生技术人员重点专科经费投入</t>
-  </si>
-  <si>
-    <t>每百名卫生技术人员重点学科经费投入</t>
-  </si>
-  <si>
-    <t>点评中药处方占中药处方总数的比例</t>
-  </si>
-  <si>
-    <t>点评处方占处方总数的比例</t>
-  </si>
-  <si>
-    <t>理法方药使用一致的出院患者比例</t>
-  </si>
-  <si>
-    <t>电子病历应用功能水平分级</t>
-  </si>
-  <si>
-    <t>级别</t>
-  </si>
-  <si>
-    <t>病理医师占比</t>
-  </si>
-  <si>
-    <t>省级室间质量评价临床检验项目参加率</t>
-  </si>
-  <si>
-    <t>省级卫生健康委</t>
-  </si>
-  <si>
-    <t>省级室间质量评价临床检验项目合格率</t>
-  </si>
-  <si>
-    <t>硕士研究生导师占比</t>
-  </si>
-  <si>
-    <t>资产负债率</t>
-  </si>
-  <si>
-    <t>通过国家室间质量评价的临床检验项目数</t>
-  </si>
-  <si>
-    <t>重点学科等级评分</t>
-  </si>
-  <si>
-    <t>重点监控药品收入占比</t>
-  </si>
-  <si>
-    <t>重点监控高值医用耗材收入占比</t>
-  </si>
-  <si>
-    <t>重症医师占比</t>
-  </si>
-  <si>
-    <t>门急诊下转患者人次数</t>
-  </si>
-  <si>
-    <t>门诊中医医疗服务项目收入占门诊医疗收入比例</t>
-  </si>
-  <si>
-    <t>门诊中药处方比例</t>
-  </si>
-  <si>
-    <t>门诊患者中药饮片使用率</t>
-  </si>
-  <si>
-    <t>门诊患者使用中医非药物疗法比例</t>
-  </si>
-  <si>
-    <t>门诊患者基本药物处方占比</t>
-  </si>
-  <si>
-    <t>门诊患者平均预约诊疗率</t>
-  </si>
-  <si>
-    <t>门诊患者预约后平均等待时间</t>
-  </si>
-  <si>
-    <t>分钟</t>
-  </si>
-  <si>
-    <t>门诊散装中药饮片和小包装中药饮片处方比例</t>
-  </si>
-  <si>
-    <t>门诊次均药品费用增幅</t>
-  </si>
-  <si>
-    <t>门诊次均费用增幅</t>
-  </si>
-  <si>
-    <t>非医嘱离院率</t>
-  </si>
-  <si>
-    <t>麻醉医师占比</t>
-  </si>
-  <si>
-    <t>是否为区卫健委重点专科</t>
+      <t xml:space="preserve">DDDs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">护士人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">护士人数与开放床位数比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">护理人员系统接受中医药知识和技能培训比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收支结余</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次均药品费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次均费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有效收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">核定床位数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员中医药科研成果转化金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员中医药科研项目经费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员科研成果转化金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员科研项目经费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员重点专科经费投入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员重点学科经费投入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点评中药处方占中药处方总数的比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点评处方占处方总数的比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理法方药使用一致的出院患者比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电子病历应用功能水平分级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">级别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">病理医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级室间质量评价临床检验项目参加率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级卫生健康委</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级室间质量评价临床检验项目合格率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硕士研究生导师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资产负债率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过国家室间质量评价的临床检验项目数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重点学科等级评分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重点监控药品收入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重点监控高值医用耗材收入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重症医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门急诊下转患者人次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊中医医疗服务项目收入占门诊医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊中药处方比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者中药饮片使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者使用中医非药物疗法比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者基本药物处方占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者平均预约诊疗率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者预约后平均等待时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊散装中药饮片和小包装中药饮片处方比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊次均药品费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊次均费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非医嘱离院率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻醉医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为区卫健委重点专科</t>
   </si>
   <si>
     <r>
@@ -704,7 +738,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>是</t>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -714,7 +748,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>1</t>
+      <t xml:space="preserve">1</t>
     </r>
     <r>
       <rPr>
@@ -724,7 +758,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>否</t>
+      <t xml:space="preserve">否</t>
     </r>
     <r>
       <rPr>
@@ -734,11 +768,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>是否为区教育局或科技局重点学科或实验室</t>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为区教育局或科技局重点学科或实验室</t>
   </si>
   <si>
     <r>
@@ -749,7 +783,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>是</t>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -759,7 +793,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>2</t>
+      <t xml:space="preserve">2</t>
     </r>
     <r>
       <rPr>
@@ -769,7 +803,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>否</t>
+      <t xml:space="preserve">否</t>
     </r>
     <r>
       <rPr>
@@ -779,11 +813,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>是否为国家卫健委临床重点专科</t>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为国家卫健委临床重点专科</t>
   </si>
   <si>
     <r>
@@ -794,7 +828,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>是</t>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -804,7 +838,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>5</t>
+      <t xml:space="preserve">5</t>
     </r>
     <r>
       <rPr>
@@ -814,7 +848,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>否</t>
+      <t xml:space="preserve">否</t>
     </r>
     <r>
       <rPr>
@@ -824,11 +858,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>是否为教育部或科技部重点学科或重点实验室</t>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为教育部或科技部重点学科或重点实验室</t>
   </si>
   <si>
     <r>
@@ -839,7 +873,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>是</t>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -849,7 +883,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>6</t>
+      <t xml:space="preserve">6</t>
     </r>
     <r>
       <rPr>
@@ -859,7 +893,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>否</t>
+      <t xml:space="preserve">否</t>
     </r>
     <r>
       <rPr>
@@ -869,11 +903,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>是否为市卫健委重点专科</t>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为市卫健委重点专科</t>
   </si>
   <si>
     <r>
@@ -884,7 +918,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>是</t>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -894,7 +928,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>3</t>
+      <t xml:space="preserve">3</t>
     </r>
     <r>
       <rPr>
@@ -904,7 +938,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>否</t>
+      <t xml:space="preserve">否</t>
     </r>
     <r>
       <rPr>
@@ -914,11 +948,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>是否为市教育厅或科技厅重点学科或重点实验室</t>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为市教育厅或科技厅重点学科或重点实验室</t>
   </si>
   <si>
     <r>
@@ -929,7 +963,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>是</t>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -939,7 +973,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>4</t>
+      <t xml:space="preserve">4</t>
     </r>
     <r>
       <rPr>
@@ -949,7 +983,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>否</t>
+      <t xml:space="preserve">否</t>
     </r>
     <r>
       <rPr>
@@ -959,90 +993,111 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
-    <t>普外科</t>
-  </si>
-  <si>
-    <t>心胸外科</t>
-  </si>
-  <si>
-    <t>泌尿外科</t>
-  </si>
-  <si>
-    <t>神经外科</t>
-  </si>
-  <si>
-    <t>妇产科</t>
-  </si>
-  <si>
-    <t>儿外科</t>
-  </si>
-  <si>
-    <t>儿内科</t>
-  </si>
-  <si>
-    <t>内分泌科</t>
-  </si>
-  <si>
-    <t>老年医学科</t>
-  </si>
-  <si>
-    <t>神经内科</t>
-  </si>
-  <si>
-    <t>心血管内科</t>
-  </si>
-  <si>
-    <t>呼吸内科</t>
-  </si>
-  <si>
-    <t>消化内科</t>
-  </si>
-  <si>
-    <t>肾内科</t>
-  </si>
-  <si>
-    <t>重症医学科</t>
-  </si>
-  <si>
-    <t>感染科</t>
-  </si>
-  <si>
-    <t>肝病科</t>
-  </si>
-  <si>
-    <t>康复医学科</t>
-  </si>
-  <si>
-    <t>对口支援医院进修人员并返回原医院人员占比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>医联体内医院进修人员并返回原医院人员占比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他医院进修人员并返回原医院人员占比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">医院在医学人才培养方面的经费投入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">临床带教教师和指导医师接受教育教学培训占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院医学教育专职管理人员数与与医院教育培训学员数之比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">篇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发表教学文章数与卫生技术人员数之比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心胸外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泌尿外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神经外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妇产科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儿外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儿内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内分泌科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老年医学科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神经内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心血管内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呼吸内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消化内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肾内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重症医学科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">感染科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肝病科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">康复医学科</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1052,10 +1107,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1067,7 +1128,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1075,305 +1136,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="F44 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,60 +1211,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" activeCellId="1" sqref="F44 B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1445,143 +1282,143 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>0.15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1589,29 +1426,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="10" width="7" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1643,17 +1488,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B2">
-        <v>0.61799999999999999</v>
+      <c r="B2" s="0" t="n">
+        <v>0.618</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1672,17 +1517,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B3">
-        <v>0.38200000000000001</v>
+      <c r="B3" s="0" t="n">
+        <v>0.382</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1701,14 +1546,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1727,14 +1572,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1756,14 +1601,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1785,14 +1630,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1814,14 +1659,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1843,14 +1688,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1872,14 +1717,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1901,14 +1746,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1930,14 +1775,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1959,14 +1804,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1988,14 +1833,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2017,14 +1862,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2046,14 +1891,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2075,14 +1920,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2104,14 +1949,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2133,14 +1978,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2162,14 +2007,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2191,14 +2036,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2220,14 +2065,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2249,14 +2094,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2278,14 +2123,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2307,14 +2152,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2336,14 +2181,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2365,14 +2210,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2394,14 +2239,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2423,14 +2268,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2452,14 +2297,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2481,14 +2326,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2508,14 +2353,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -2535,14 +2380,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -2564,14 +2409,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -2591,14 +2436,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -2618,17 +2463,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B36">
-        <v>0.38200000000000001</v>
+      <c r="B36" s="0" t="n">
+        <v>0.382</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2650,17 +2495,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B37">
-        <v>0.61799999999999999</v>
+      <c r="B37" s="0" t="n">
+        <v>0.618</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -2682,14 +2527,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2711,14 +2556,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -2740,14 +2585,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -2769,21 +2614,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>38</v>
+      <c r="F41" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
@@ -2796,14 +2641,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2825,14 +2670,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2854,14 +2699,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2883,14 +2728,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2912,14 +2757,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E46" s="1"/>
@@ -2937,14 +2782,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2966,14 +2811,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2983,7 +2828,7 @@
         <v>38</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>49</v>
@@ -2995,14 +2840,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -3012,7 +2857,7 @@
         <v>38</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>41</v>
@@ -3024,14 +2869,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3053,21 +2898,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
@@ -3080,21 +2925,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>39</v>
@@ -3109,14 +2954,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -3136,14 +2981,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -3165,21 +3010,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F55" t="s">
-        <v>108</v>
+      <c r="F55" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>48</v>
@@ -3194,14 +3039,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -3221,14 +3066,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -3248,14 +3093,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -3277,14 +3122,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -3306,14 +3151,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -3335,14 +3180,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -3364,14 +3209,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -3391,21 +3236,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
@@ -3418,21 +3263,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>48</v>
@@ -3447,21 +3292,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>48</v>
@@ -3476,21 +3321,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>48</v>
@@ -3505,21 +3350,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>48</v>
@@ -3534,21 +3379,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>48</v>
@@ -3563,21 +3408,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>48</v>
@@ -3592,14 +3437,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -3621,14 +3466,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -3650,14 +3495,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -3679,21 +3524,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>91</v>
@@ -3708,14 +3553,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -3737,14 +3582,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -3754,7 +3599,7 @@
         <v>38</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>41</v>
@@ -3766,14 +3611,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -3783,7 +3628,7 @@
         <v>38</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>41</v>
@@ -3795,14 +3640,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -3824,14 +3669,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -3853,14 +3698,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -3882,14 +3727,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -3908,14 +3753,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -3937,14 +3782,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -3966,14 +3811,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -3995,14 +3840,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -4024,14 +3869,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -4053,14 +3898,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -4082,14 +3927,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -4111,14 +3956,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -4140,14 +3985,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -4169,14 +4014,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -4198,21 +4043,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>48</v>
@@ -4227,14 +4072,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -4256,14 +4101,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -4285,14 +4130,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -4314,14 +4159,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -4343,14 +4188,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -4372,17 +4217,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -4398,17 +4243,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -4424,17 +4269,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -4450,17 +4295,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -4476,17 +4321,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -4502,17 +4347,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -4528,184 +4373,295 @@
         <v>30</v>
       </c>
     </row>
+    <row r="103" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="F44 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>176</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>177</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>178</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>179</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>180</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>181</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>182</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>183</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>184</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>186</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>187</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>188</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>189</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>190</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>191</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>192</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19">
+        <v>193</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/cases/goodhostpital2021/评价指标体系.xlsx
+++ b/cases/goodhostpital2021/评价指标体系.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="193">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -487,35 +487,6 @@
     <t xml:space="preserve">医院感染管理专职人员数与开放床位数比</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">比值（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1:X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">对口支援医院进修人员并返回原医院人员占比</t>
   </si>
   <si>
@@ -1076,7 +1047,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1105,18 +1076,6 @@
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1161,16 +1120,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1194,10 +1149,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -1262,10 +1217,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
@@ -1443,15 +1398,15 @@
   </sheetPr>
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="7"/>
   </cols>
@@ -2627,8 +2582,8 @@
       <c r="E41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>93</v>
+      <c r="F41" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
@@ -2643,7 +2598,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -2672,7 +2627,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
@@ -2701,7 +2656,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
@@ -2730,7 +2685,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>16</v>
@@ -2759,7 +2714,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
@@ -2784,7 +2739,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
@@ -2813,7 +2768,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
@@ -2828,7 +2783,7 @@
         <v>38</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>49</v>
@@ -2842,7 +2797,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
@@ -2857,7 +2812,7 @@
         <v>38</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>41</v>
@@ -2871,7 +2826,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>16</v>
@@ -2900,7 +2855,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
@@ -2912,7 +2867,7 @@
         <v>35</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
@@ -2927,7 +2882,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
@@ -2939,7 +2894,7 @@
         <v>82</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>39</v>
@@ -2956,7 +2911,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>19</v>
@@ -2983,7 +2938,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>11</v>
@@ -3012,7 +2967,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
@@ -3024,7 +2979,7 @@
         <v>37</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>48</v>
@@ -3041,7 +2996,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -3068,7 +3023,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
@@ -3095,7 +3050,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -3124,7 +3079,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>17</v>
@@ -3153,7 +3108,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>18</v>
@@ -3182,7 +3137,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>18</v>
@@ -3211,7 +3166,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>17</v>
@@ -3238,7 +3193,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>19</v>
@@ -3250,7 +3205,7 @@
         <v>35</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
@@ -3265,7 +3220,7 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
@@ -3277,7 +3232,7 @@
         <v>46</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>48</v>
@@ -3294,7 +3249,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -3306,7 +3261,7 @@
         <v>46</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>48</v>
@@ -3323,7 +3278,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
@@ -3335,7 +3290,7 @@
         <v>46</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>48</v>
@@ -3352,7 +3307,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>14</v>
@@ -3364,7 +3319,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>48</v>
@@ -3381,7 +3336,7 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>14</v>
@@ -3393,7 +3348,7 @@
         <v>46</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>48</v>
@@ -3410,7 +3365,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>14</v>
@@ -3422,7 +3377,7 @@
         <v>46</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>48</v>
@@ -3439,7 +3394,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>9</v>
@@ -3468,7 +3423,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
@@ -3497,7 +3452,7 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
@@ -3526,7 +3481,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
@@ -3538,7 +3493,7 @@
         <v>46</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>91</v>
@@ -3555,7 +3510,7 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -3584,7 +3539,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
@@ -3599,7 +3554,7 @@
         <v>38</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>41</v>
@@ -3613,7 +3568,7 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
@@ -3628,7 +3583,7 @@
         <v>38</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>41</v>
@@ -3642,7 +3597,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
@@ -3671,7 +3626,7 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
@@ -3700,7 +3655,7 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
@@ -3729,7 +3684,7 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>16</v>
@@ -3755,7 +3710,7 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>9</v>
@@ -3784,7 +3739,7 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>9</v>
@@ -3813,7 +3768,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3842,7 +3797,7 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
@@ -3871,7 +3826,7 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>17</v>
@@ -3900,7 +3855,7 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
@@ -3929,7 +3884,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>7</v>
@@ -3958,7 +3913,7 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>7</v>
@@ -3987,7 +3942,7 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>9</v>
@@ -4016,7 +3971,7 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>10</v>
@@ -4045,7 +4000,7 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>10</v>
@@ -4057,7 +4012,7 @@
         <v>37</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>48</v>
@@ -4074,7 +4029,7 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
@@ -4103,7 +4058,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
@@ -4132,7 +4087,7 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>18</v>
@@ -4161,7 +4116,7 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>16</v>
@@ -4190,7 +4145,7 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -4219,10 +4174,10 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
@@ -4245,10 +4200,10 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>16</v>
@@ -4271,10 +4226,10 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>16</v>
@@ -4297,10 +4252,10 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>16</v>
@@ -4323,10 +4278,10 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>16</v>
@@ -4349,10 +4304,10 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
@@ -4375,11 +4330,14 @@
     </row>
     <row r="103" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D103" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E103" s="1" t="s">
         <v>46</v>
       </c>
@@ -4401,11 +4359,14 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D104" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E104" s="1" t="s">
         <v>46</v>
       </c>
@@ -4427,16 +4388,19 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D105" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E105" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>48</v>
@@ -4453,10 +4417,13 @@
     </row>
     <row r="106" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>46</v>
@@ -4499,7 +4466,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.13"/>
@@ -4510,12 +4477,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>3</v>
@@ -4523,7 +4490,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -4531,7 +4498,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
@@ -4539,7 +4506,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -4547,7 +4514,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
@@ -4555,7 +4522,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>3</v>
@@ -4563,7 +4530,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -4571,7 +4538,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>3</v>
@@ -4579,7 +4546,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -4587,7 +4554,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
@@ -4595,7 +4562,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>3</v>
@@ -4603,7 +4570,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -4611,7 +4578,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3</v>
@@ -4619,7 +4586,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -4627,7 +4594,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
@@ -4635,7 +4602,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>3</v>
@@ -4643,7 +4610,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>3</v>
@@ -4651,7 +4618,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>3</v>
